--- a/MEDIA/3005_拉亞直營營業額(2020-10-01~2020-10-18).xlsx
+++ b/MEDIA/3005_拉亞直營營業額(2020-10-01~2020-10-18).xlsx
@@ -510,80 +510,80 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>22119</v>
+        <v>37762</v>
       </c>
       <c r="E3" t="n">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="F3" t="n">
-        <v>9996</v>
+        <v>14106</v>
       </c>
       <c r="G3" t="n">
-        <v>45.2</v>
+        <v>37.4</v>
       </c>
       <c r="H3" t="n">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="I3" t="n">
-        <v>5830</v>
+        <v>10342</v>
       </c>
       <c r="J3" t="n">
-        <v>26.4</v>
+        <v>27.4</v>
       </c>
       <c r="K3" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="L3" t="n">
-        <v>1130</v>
+        <v>4390</v>
       </c>
       <c r="M3" t="n">
-        <v>5.1</v>
+        <v>11.6</v>
       </c>
       <c r="N3" t="n">
         <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>568</v>
+        <v>3710</v>
       </c>
       <c r="P3" t="n">
-        <v>2.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>28</v>
+      </c>
+      <c r="U3" t="n">
+        <v>4690</v>
+      </c>
+      <c r="V3" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="W3" t="n">
         <v>8</v>
       </c>
-      <c r="R3" t="n">
-        <v>1425</v>
-      </c>
-      <c r="S3" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="T3" t="n">
-        <v>19</v>
-      </c>
-      <c r="U3" t="n">
-        <v>3170</v>
-      </c>
-      <c r="V3" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>170</v>
+        <v>236</v>
       </c>
       <c r="AA3" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4">
@@ -599,38 +599,38 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>14028</v>
+        <v>31502</v>
       </c>
       <c r="E4" t="n">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="F4" t="n">
-        <v>6843</v>
+        <v>12743</v>
       </c>
       <c r="G4" t="n">
-        <v>48.8</v>
+        <v>40.5</v>
       </c>
       <c r="H4" t="n">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="I4" t="n">
-        <v>4120</v>
+        <v>8404</v>
       </c>
       <c r="J4" t="n">
-        <v>29.4</v>
+        <v>26.7</v>
       </c>
       <c r="K4" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="L4" t="n">
-        <v>1865</v>
+        <v>4065</v>
       </c>
       <c r="M4" t="n">
-        <v>13.3</v>
+        <v>12.9</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -642,37 +642,37 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="U4" t="n">
-        <v>240</v>
+        <v>5940</v>
       </c>
       <c r="V4" t="n">
-        <v>1.7</v>
+        <v>18.9</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="Z4" t="n">
-        <v>110</v>
+        <v>227</v>
       </c>
       <c r="AA4" t="n">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5">
@@ -688,80 +688,80 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>21124</v>
+        <v>30023</v>
       </c>
       <c r="E5" t="n">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="F5" t="n">
-        <v>11676</v>
+        <v>13608</v>
       </c>
       <c r="G5" t="n">
-        <v>55.3</v>
+        <v>45.3</v>
       </c>
       <c r="H5" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="I5" t="n">
-        <v>5593</v>
+        <v>7549</v>
       </c>
       <c r="J5" t="n">
-        <v>26.5</v>
+        <v>25.1</v>
       </c>
       <c r="K5" t="n">
+        <v>25</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2805</v>
+      </c>
+      <c r="M5" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>35</v>
+      </c>
+      <c r="U5" t="n">
+        <v>5340</v>
+      </c>
+      <c r="V5" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="W5" t="n">
         <v>9</v>
       </c>
-      <c r="L5" t="n">
-        <v>1025</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" t="n">
-        <v>865</v>
-      </c>
-      <c r="S5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T5" t="n">
-        <v>14</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1965</v>
-      </c>
-      <c r="V5" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>721</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>155</v>
+        <v>224</v>
       </c>
       <c r="AA5" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6">
@@ -777,80 +777,80 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>21663</v>
+        <v>28198</v>
       </c>
       <c r="E6" t="n">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="F6" t="n">
-        <v>8174</v>
+        <v>12715.6</v>
       </c>
       <c r="G6" t="n">
-        <v>37.7</v>
+        <v>45.1</v>
       </c>
       <c r="H6" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="I6" t="n">
-        <v>8565</v>
+        <v>5475</v>
       </c>
       <c r="J6" t="n">
-        <v>39.5</v>
+        <v>19.4</v>
       </c>
       <c r="K6" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="L6" t="n">
-        <v>1120</v>
+        <v>4465</v>
       </c>
       <c r="M6" t="n">
-        <v>5.2</v>
+        <v>15.8</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>25</v>
+      </c>
+      <c r="U6" t="n">
+        <v>3845</v>
+      </c>
+      <c r="V6" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="W6" t="n">
+        <v>30</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1698</v>
+      </c>
+      <c r="Y6" t="n">
         <v>6</v>
       </c>
-      <c r="R6" t="n">
-        <v>1515</v>
-      </c>
-      <c r="S6" t="n">
-        <v>7</v>
-      </c>
-      <c r="T6" t="n">
-        <v>14</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2235</v>
-      </c>
-      <c r="V6" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
       <c r="Z6" t="n">
-        <v>157</v>
+        <v>217</v>
       </c>
       <c r="AA6" t="n">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7">
@@ -866,80 +866,80 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>16979</v>
+        <v>23458</v>
       </c>
       <c r="E7" t="n">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="F7" t="n">
-        <v>6755</v>
+        <v>9801.4</v>
       </c>
       <c r="G7" t="n">
-        <v>39.8</v>
+        <v>41.8</v>
       </c>
       <c r="H7" t="n">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I7" t="n">
-        <v>6169</v>
+        <v>6927</v>
       </c>
       <c r="J7" t="n">
-        <v>36.3</v>
+        <v>29.5</v>
       </c>
       <c r="K7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L7" t="n">
-        <v>1345</v>
+        <v>1140</v>
       </c>
       <c r="M7" t="n">
-        <v>7.9</v>
+        <v>4.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>955</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="U7" t="n">
-        <v>1755</v>
+        <v>3515</v>
       </c>
       <c r="V7" t="n">
-        <v>10.3</v>
+        <v>15</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>2055</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z7" t="n">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="AA7" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
@@ -955,38 +955,38 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>15735</v>
+        <v>22930</v>
       </c>
       <c r="E8" t="n">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="F8" t="n">
-        <v>5996</v>
+        <v>10804</v>
       </c>
       <c r="G8" t="n">
-        <v>38.1</v>
+        <v>47.1</v>
       </c>
       <c r="H8" t="n">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="I8" t="n">
-        <v>6394</v>
+        <v>5959.8</v>
       </c>
       <c r="J8" t="n">
-        <v>40.6</v>
+        <v>26</v>
       </c>
       <c r="K8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L8" t="n">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="M8" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -998,37 +998,37 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>1540</v>
+        <v>235</v>
       </c>
       <c r="S8" t="n">
-        <v>9.800000000000001</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="U8" t="n">
-        <v>1255</v>
+        <v>3440</v>
       </c>
       <c r="V8" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1947.4</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>167</v>
+        <v>232</v>
       </c>
       <c r="AA8" t="n">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
@@ -1044,80 +1044,80 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>17967</v>
+        <v>25864</v>
       </c>
       <c r="E9" t="n">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="F9" t="n">
-        <v>6393</v>
+        <v>8747</v>
       </c>
       <c r="G9" t="n">
-        <v>35.6</v>
+        <v>33.8</v>
       </c>
       <c r="H9" t="n">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="I9" t="n">
-        <v>7694</v>
+        <v>8303</v>
       </c>
       <c r="J9" t="n">
-        <v>42.8</v>
+        <v>32.1</v>
       </c>
       <c r="K9" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="L9" t="n">
-        <v>1140</v>
+        <v>2105</v>
       </c>
       <c r="M9" t="n">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>865</v>
+        <v>200</v>
       </c>
       <c r="S9" t="n">
-        <v>4.8</v>
+        <v>0.8</v>
       </c>
       <c r="T9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U9" t="n">
-        <v>1875</v>
+        <v>2655</v>
       </c>
       <c r="V9" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>2254.4</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Z9" t="n">
-        <v>192</v>
+        <v>247</v>
       </c>
       <c r="AA9" t="n">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
@@ -1133,80 +1133,80 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>20675</v>
+        <v>26223</v>
       </c>
       <c r="E10" t="n">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="F10" t="n">
-        <v>8647</v>
+        <v>11532.8</v>
       </c>
       <c r="G10" t="n">
-        <v>41.8</v>
+        <v>44</v>
       </c>
       <c r="H10" t="n">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="I10" t="n">
-        <v>8003</v>
+        <v>6507</v>
       </c>
       <c r="J10" t="n">
-        <v>38.7</v>
+        <v>24.8</v>
       </c>
       <c r="K10" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="L10" t="n">
-        <v>1230</v>
+        <v>2574.95</v>
       </c>
       <c r="M10" t="n">
-        <v>5.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="U10" t="n">
-        <v>2335</v>
+        <v>3350</v>
       </c>
       <c r="V10" t="n">
-        <v>11.3</v>
+        <v>12.8</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>2195</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Z10" t="n">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="AA10" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -1222,80 +1222,80 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>20843</v>
+        <v>31924</v>
       </c>
       <c r="E11" t="n">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="F11" t="n">
-        <v>7636</v>
+        <v>9533</v>
       </c>
       <c r="G11" t="n">
-        <v>36.6</v>
+        <v>29.9</v>
       </c>
       <c r="H11" t="n">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="I11" t="n">
-        <v>7007</v>
+        <v>6564</v>
       </c>
       <c r="J11" t="n">
-        <v>33.6</v>
+        <v>20.6</v>
       </c>
       <c r="K11" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="L11" t="n">
-        <v>1640</v>
+        <v>3965</v>
       </c>
       <c r="M11" t="n">
-        <v>7.9</v>
+        <v>12.4</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1220</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R11" t="n">
-        <v>1975</v>
+        <v>1375</v>
       </c>
       <c r="S11" t="n">
-        <v>9.5</v>
+        <v>4.3</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="U11" t="n">
-        <v>2585</v>
+        <v>6615</v>
       </c>
       <c r="V11" t="n">
-        <v>12.4</v>
+        <v>20.7</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>2652</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="Z11" t="n">
-        <v>175</v>
+        <v>244</v>
       </c>
       <c r="AA11" t="n">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12">
@@ -1311,80 +1311,80 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>18178</v>
+        <v>41349</v>
       </c>
       <c r="E12" t="n">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="F12" t="n">
-        <v>7398</v>
+        <v>10715</v>
       </c>
       <c r="G12" t="n">
-        <v>40.7</v>
+        <v>25.9</v>
       </c>
       <c r="H12" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I12" t="n">
-        <v>6325</v>
+        <v>8244</v>
       </c>
       <c r="J12" t="n">
-        <v>34.8</v>
+        <v>19.9</v>
       </c>
       <c r="K12" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="L12" t="n">
-        <v>1115</v>
+        <v>3180</v>
       </c>
       <c r="M12" t="n">
-        <v>6.1</v>
+        <v>7.7</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>10585</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>25.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1010</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="U12" t="n">
-        <v>2330</v>
+        <v>6655</v>
       </c>
       <c r="V12" t="n">
-        <v>12.8</v>
+        <v>16.1</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1970</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="Z12" t="n">
-        <v>137</v>
+        <v>222</v>
       </c>
       <c r="AA12" t="n">
-        <v>133</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13">
@@ -1400,80 +1400,80 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>27670</v>
+        <v>32785</v>
       </c>
       <c r="E13" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F13" t="n">
-        <v>14604</v>
+        <v>11830</v>
       </c>
       <c r="G13" t="n">
-        <v>52.8</v>
+        <v>36.1</v>
       </c>
       <c r="H13" t="n">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="I13" t="n">
-        <v>7555</v>
+        <v>6845</v>
       </c>
       <c r="J13" t="n">
-        <v>27.3</v>
+        <v>20.9</v>
       </c>
       <c r="K13" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L13" t="n">
-        <v>1880</v>
+        <v>3505</v>
       </c>
       <c r="M13" t="n">
-        <v>6.8</v>
+        <v>10.7</v>
       </c>
       <c r="N13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O13" t="n">
-        <v>116</v>
+        <v>4325</v>
       </c>
       <c r="P13" t="n">
-        <v>0.4</v>
+        <v>13.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R13" t="n">
-        <v>1280</v>
+        <v>825</v>
       </c>
       <c r="S13" t="n">
-        <v>4.6</v>
+        <v>2.5</v>
       </c>
       <c r="T13" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="U13" t="n">
-        <v>2235</v>
+        <v>3655</v>
       </c>
       <c r="V13" t="n">
-        <v>8.1</v>
+        <v>11.1</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="AA13" t="n">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14">
@@ -1489,80 +1489,80 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>17635</v>
+        <v>26634</v>
       </c>
       <c r="E14" t="n">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="F14" t="n">
-        <v>7700</v>
+        <v>10304.4</v>
       </c>
       <c r="G14" t="n">
-        <v>43.7</v>
+        <v>38.7</v>
       </c>
       <c r="H14" t="n">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="I14" t="n">
-        <v>6915</v>
+        <v>5723</v>
       </c>
       <c r="J14" t="n">
-        <v>39.2</v>
+        <v>21.5</v>
       </c>
       <c r="K14" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L14" t="n">
-        <v>1025</v>
+        <v>2265</v>
       </c>
       <c r="M14" t="n">
-        <v>5.8</v>
+        <v>8.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1340</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q14" t="n">
         <v>4</v>
       </c>
       <c r="R14" t="n">
-        <v>610</v>
+        <v>830</v>
       </c>
       <c r="S14" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="T14" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="U14" t="n">
-        <v>1385</v>
+        <v>3655</v>
       </c>
       <c r="V14" t="n">
-        <v>7.9</v>
+        <v>13.7</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>2517</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="AA14" t="n">
-        <v>94</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15">
@@ -1578,38 +1578,38 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>16719</v>
+        <v>25477</v>
       </c>
       <c r="E15" t="n">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="F15" t="n">
-        <v>7957</v>
+        <v>8846</v>
       </c>
       <c r="G15" t="n">
-        <v>47.6</v>
+        <v>34.7</v>
       </c>
       <c r="H15" t="n">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="I15" t="n">
-        <v>5187</v>
+        <v>6321</v>
       </c>
       <c r="J15" t="n">
-        <v>31</v>
+        <v>24.8</v>
       </c>
       <c r="K15" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L15" t="n">
-        <v>1130</v>
+        <v>2680</v>
       </c>
       <c r="M15" t="n">
-        <v>6.8</v>
+        <v>10.5</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1621,37 +1621,37 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="U15" t="n">
-        <v>1695</v>
+        <v>5325</v>
       </c>
       <c r="V15" t="n">
-        <v>10.1</v>
+        <v>20.9</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>2305</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Z15" t="n">
-        <v>161</v>
+        <v>239</v>
       </c>
       <c r="AA15" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16">
@@ -1667,38 +1667,38 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>18296</v>
+        <v>27070</v>
       </c>
       <c r="E16" t="n">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="F16" t="n">
-        <v>7242</v>
+        <v>10633</v>
       </c>
       <c r="G16" t="n">
-        <v>39.6</v>
+        <v>39.3</v>
       </c>
       <c r="H16" t="n">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="I16" t="n">
-        <v>7539</v>
+        <v>7942</v>
       </c>
       <c r="J16" t="n">
-        <v>41.2</v>
+        <v>29.3</v>
       </c>
       <c r="K16" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="L16" t="n">
-        <v>985</v>
+        <v>1905</v>
       </c>
       <c r="M16" t="n">
-        <v>5.4</v>
+        <v>7</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1710,37 +1710,37 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R16" t="n">
-        <v>685</v>
+        <v>95</v>
       </c>
       <c r="S16" t="n">
-        <v>3.7</v>
+        <v>0.4</v>
       </c>
       <c r="T16" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="U16" t="n">
-        <v>1845</v>
+        <v>3950</v>
       </c>
       <c r="V16" t="n">
-        <v>10.1</v>
+        <v>14.6</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>2545</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="Z16" t="n">
-        <v>184</v>
+        <v>258</v>
       </c>
       <c r="AA16" t="n">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17">
@@ -1756,80 +1756,80 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>14926</v>
+        <v>24606</v>
       </c>
       <c r="E17" t="n">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="F17" t="n">
-        <v>6221</v>
+        <v>9657</v>
       </c>
       <c r="G17" t="n">
-        <v>41.7</v>
+        <v>39.2</v>
       </c>
       <c r="H17" t="n">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="I17" t="n">
-        <v>5435</v>
+        <v>6268</v>
       </c>
       <c r="J17" t="n">
-        <v>36.4</v>
+        <v>25.5</v>
       </c>
       <c r="K17" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="L17" t="n">
-        <v>1215</v>
+        <v>3595</v>
       </c>
       <c r="M17" t="n">
-        <v>8.1</v>
+        <v>14.6</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="U17" t="n">
-        <v>1595</v>
+        <v>2375</v>
       </c>
       <c r="V17" t="n">
-        <v>10.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>2671</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="Z17" t="n">
-        <v>166</v>
+        <v>252</v>
       </c>
       <c r="AA17" t="n">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18">
@@ -1845,80 +1845,80 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>23078</v>
+        <v>27960</v>
       </c>
       <c r="E18" t="n">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="F18" t="n">
-        <v>8595</v>
+        <v>10447</v>
       </c>
       <c r="G18" t="n">
-        <v>37.2</v>
+        <v>37.4</v>
       </c>
       <c r="H18" t="n">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="I18" t="n">
-        <v>7693</v>
+        <v>7162</v>
       </c>
       <c r="J18" t="n">
-        <v>33.3</v>
+        <v>25.6</v>
       </c>
       <c r="K18" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L18" t="n">
-        <v>1220</v>
+        <v>2444</v>
       </c>
       <c r="M18" t="n">
-        <v>5.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="N18" t="n">
         <v>2</v>
       </c>
       <c r="O18" t="n">
-        <v>3680</v>
+        <v>1810</v>
       </c>
       <c r="P18" t="n">
-        <v>15.9</v>
+        <v>6.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="U18" t="n">
-        <v>1320</v>
+        <v>3980</v>
       </c>
       <c r="V18" t="n">
-        <v>5.7</v>
+        <v>14.2</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>2117</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>205</v>
+        <v>253</v>
       </c>
       <c r="AA18" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19">
@@ -1934,80 +1934,80 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>20936</v>
+        <v>31538</v>
       </c>
       <c r="E19" t="n">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="F19" t="n">
-        <v>9817</v>
+        <v>13994</v>
       </c>
       <c r="G19" t="n">
-        <v>46.9</v>
+        <v>44.4</v>
       </c>
       <c r="H19" t="n">
         <v>70</v>
       </c>
       <c r="I19" t="n">
-        <v>6079</v>
+        <v>7434</v>
       </c>
       <c r="J19" t="n">
-        <v>29</v>
+        <v>23.6</v>
       </c>
       <c r="K19" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L19" t="n">
-        <v>1935</v>
+        <v>3440</v>
       </c>
       <c r="M19" t="n">
-        <v>9.199999999999999</v>
+        <v>10.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1205</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="U19" t="n">
-        <v>1900</v>
+        <v>3920</v>
       </c>
       <c r="V19" t="n">
-        <v>9.1</v>
+        <v>12.4</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1850</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="Z19" t="n">
-        <v>174</v>
+        <v>253</v>
       </c>
       <c r="AA19" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20">
@@ -2023,80 +2023,80 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>拉亞農安</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>25320</v>
+        <v>40406</v>
       </c>
       <c r="E20" t="n">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="F20" t="n">
-        <v>11265</v>
+        <v>14357</v>
       </c>
       <c r="G20" t="n">
-        <v>44.5</v>
+        <v>35.5</v>
       </c>
       <c r="H20" t="n">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I20" t="n">
-        <v>9410</v>
+        <v>10414</v>
       </c>
       <c r="J20" t="n">
-        <v>37.2</v>
+        <v>25.8</v>
       </c>
       <c r="K20" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="L20" t="n">
-        <v>1385</v>
+        <v>4960</v>
       </c>
       <c r="M20" t="n">
-        <v>5.5</v>
+        <v>12.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1860</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R20" t="n">
-        <v>680</v>
+        <v>1160</v>
       </c>
       <c r="S20" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="T20" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="U20" t="n">
-        <v>2580</v>
+        <v>6820</v>
       </c>
       <c r="V20" t="n">
-        <v>10.2</v>
+        <v>16.9</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>835</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Z20" t="n">
-        <v>185</v>
+        <v>271</v>
       </c>
       <c r="AA20" t="n">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21">
@@ -2108,76 +2108,76 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>353891</v>
+        <v>535709</v>
       </c>
       <c r="E21" t="n">
-        <v>1093</v>
+        <v>1495</v>
       </c>
       <c r="F21" t="n">
-        <v>152915</v>
+        <v>204372</v>
       </c>
       <c r="G21" t="n">
-        <v>43.2</v>
+        <v>38.1</v>
       </c>
       <c r="H21" t="n">
-        <v>1492</v>
+        <v>1258</v>
       </c>
       <c r="I21" t="n">
-        <v>121513</v>
+        <v>132383</v>
       </c>
       <c r="J21" t="n">
-        <v>34.3</v>
+        <v>24.7</v>
       </c>
       <c r="K21" t="n">
-        <v>191</v>
+        <v>461</v>
       </c>
       <c r="L21" t="n">
-        <v>22935</v>
+        <v>54028</v>
       </c>
       <c r="M21" t="n">
-        <v>6.5</v>
+        <v>10.1</v>
       </c>
       <c r="N21" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="O21" t="n">
-        <v>4418</v>
+        <v>27475</v>
       </c>
       <c r="P21" t="n">
-        <v>1.2</v>
+        <v>5.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="R21" t="n">
-        <v>17810</v>
+        <v>4720</v>
       </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>0.9</v>
       </c>
       <c r="T21" t="n">
-        <v>222</v>
+        <v>492</v>
       </c>
       <c r="U21" t="n">
-        <v>34300</v>
+        <v>79725</v>
       </c>
       <c r="V21" t="n">
-        <v>9.699999999999999</v>
+        <v>14.9</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>584</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>33006</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>3088</v>
+        <v>4335</v>
       </c>
       <c r="AA21" t="n">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
